--- a/biology/Botanique/Oleaceae/Oleaceae.xlsx
+++ b/biology/Botanique/Oleaceae/Oleaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Oleaceae (Oléacées) regroupe des plantes dicotylédones ; elle comprend 900 espèces réparties en 25 à 26 genres.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient de genre type Olea, nom latin pour « olivier ; olive » , dérivé du grec ἐλαί - ἐλαία / elai - elaia, de même sens.
 </t>
@@ -542,7 +556,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique place cette famille dans l'ordre des Lamiales.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces plantes dicotylédones, à feuilles entières opposées, possédant des fleurs à corolles tubuleuses, fournissant des fruits ou des graines a tissus oléagineux, sont des arbres ou des arbustes ou parfois des lianes.
 Les feuilles de cette famille sont opposées, simples ou composées pennées, sans stipules.
@@ -610,11 +628,48 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La famille des Oléacées est originaire des régions tropicales et tempérées, avec concentration d'espèces en Asie du sud-est et en Australasie.
-Liste des tribus
-Selon NCBI  (7 Jul 2010)[1] et Angiosperm Phylogeny Website                        (7 Jul 2010)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Oléacées est originaire des régions tropicales et tempérées, avec concentration d'espèces en Asie du sud-est et en Australasie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Oleaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oleaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des tribus</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (7 Jul 2010) et Angiosperm Phylogeny Website                        (7 Jul 2010) :
 tribu Fontanesieae ;
 tribu Forsythieae ;
 tribu Jasmineae ;
@@ -623,33 +678,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Oleaceae</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Oleaceae</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (23 février 2022)[3] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (23 février 2022) :
 Abeliophyllum Nakai
 Chionanthus L.
 Comoranthus Knobl.
@@ -675,7 +732,7 @@
 Priogymnanthus P.S. Green
 Schrebera Roxb.
 Syringa L.
-Selon GBIF       (23 février 2022)[4] :
+Selon GBIF       (23 février 2022) :
 Abeliophyllum Nakai (1 espèces)
 Calyptospermum A.G.Dietrich, 1831
 Cartrema Raf. (6 espèces)
@@ -735,7 +792,7 @@
 Syringa L. (63 espèces)
 Syringophyllum L.Y.Budantsev &amp; I.A.Ozerov, 2001
 ×Osmarea Burkwood &amp; Skipwith
-Selon World Checklist of Selected Plant Families (WCSP)  (7 Jul 2010)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (7 Jul 2010) :
 Abeliophyllum Nakai (1919)
 Chionanthus L. (1753)
 Comoranthus Knobl. (1934)
@@ -761,7 +818,7 @@
 Priogymnanthus P.S.Green (1994)
 Schrebera Roxb. (1799)
 Syringa L. (1753)
-Selon Angiosperm Phylogeny Website                        (7 Jul 2010)[2] :
+Selon Angiosperm Phylogeny Website                        (7 Jul 2010) :
 Abeliophyllum Nakai
 Chionanthus L.
 Comoranthus Knobl.
@@ -788,7 +845,7 @@
 Syringa L.
 Tessarandra Miers
 Tetrapilus Lour.
-Selon NCBI  (7 Jul 2010)[1] :
+Selon NCBI  (7 Jul 2010) :
 tribu Fontanesieae
 Fontanesia
 tribu Forsythieae
@@ -819,7 +876,7 @@
 Priogymnanthus
 Schrebera
 Syringa
-Selon DELTA Angio           (7 Jul 2010)[6] :
+Selon DELTA Angio           (7 Jul 2010) :
 Abeliophyllum
 Chionanthus
 Comoranthus
@@ -845,7 +902,7 @@
 Schrebera
 Syringa
 Tessarandra
-Selon ITIS      (7 Jul 2010)[7] :
+Selon ITIS      (7 Jul 2010) :
 Chionanthus L.
 Fontanesia Labill.
 Forestiera Poir.
